--- a/file/dongdaemun-gu.xlsx
+++ b/file/dongdaemun-gu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB8500-7D80-4745-848D-5554DE6E9600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836D7DC9-5EE6-4B56-AE68-BB6B78EEFB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>중앙하이츠빌</t>
+  </si>
+  <si>
+    <t>미주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -289,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,16 +316,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -340,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,9 +396,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,26 +431,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,26 +466,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2CE975-3ABA-45CA-A12F-94D8B0A5F403}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1308,6 +1290,14 @@
         <v>74</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>349</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
